--- a/medicine/Mort/Potence_(pendaison)/Potence_(pendaison).xlsx
+++ b/medicine/Mort/Potence_(pendaison)/Potence_(pendaison).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une potence (du latin potentia = puissance, appui) ou un gibet est une structure, généralement en bois, utilisée pour les exécutions par pendaison. Le terme de « gibet » est aussi souvent utilisé pour désigner les fourches patibulaires destinées à exposer les cadavres des condamnés à mort dans un but de dissuasion. On utilise également, de manière moins précise, le terme d’échafaud.
 </t>
@@ -511,7 +523,9 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa forme la plus simple, la potence ressemble à un « L » inversé, avec une poutre verticale et une autre horizontale, à laquelle une corde terminée par un nœud coulant est attachée. Elle peut aussi être en forme de « U » inversé. La potence peut être permanente, de manière à exercer un effet dissuasif, à représenter le pouvoir politique, seul habilité à exercer la haute justice — le terme de potence vient du latin potentia, le « pouvoir » ; ou bien elle peut n'être mise en place qu'à l'occasion d'une exécution. À l'époque contemporaine, la potence est le plus souvent érigée à l'intérieur d'une prison.
 En France et en Angleterre, les condamnés à la pendaison devaient passer sous l’échelle adossée au gibet alors que leur bourreau la contournait, d'où l'expression « passer sous une échelle porte malheur ».
